--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barabasz/GitHub/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3130A7-7207-D74D-89E0-EA5B91F4F732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D512BEA8-9D43-DE4C-B975-8524DB1F0EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{20D749EE-A5EA-744F-BFD7-A36D76765C1B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Lewis</t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>Morris</t>
   </si>
 </sst>
 </file>
@@ -121,8 +127,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C2B8059-FA73-8A41-B7F7-7AF3439FB729}" name="Table1" displayName="Table1" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4" xr:uid="{1C2B8059-FA73-8A41-B7F7-7AF3439FB729}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C2B8059-FA73-8A41-B7F7-7AF3439FB729}" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5" xr:uid="{1C2B8059-FA73-8A41-B7F7-7AF3439FB729}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9312839F-B2C8-8740-A9B0-35234A872E68}" name="id"/>
     <tableColumn id="2" xr3:uid="{815FD83E-E7C1-CD44-9CEE-EAF86C71D01D}" name="name"/>
@@ -450,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F831B53-92FE-9846-927C-539E02FFE2AA}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,6 +518,20 @@
       </c>
       <c r="D4">
         <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
